--- a/data/trans_dic/P19C08-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Edad-trans_dic.xlsx
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002916498088552235</v>
+        <v>0.002620935385678928</v>
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
@@ -731,11 +731,11 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002734964419365092</v>
+        <v>0.002721450637883981</v>
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.003606163352792979</v>
+        <v>0.003555257493606108</v>
       </c>
     </row>
     <row r="6">
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01134920274334723</v>
+        <v>0.01577668870029537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01749671177003873</v>
+        <v>0.01753665480319995</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.04488775242623244</v>
+        <v>0.04201828640930159</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01125813018878272</v>
+        <v>0.01413580262128242</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02750163358748472</v>
+        <v>0.02664681369221279</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.02950208209968736</v>
+        <v>0.03262253892376207</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.008886826078187334</v>
+        <v>0.009370524038019742</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01741583794419614</v>
+        <v>0.01758647959183621</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.02886932351516303</v>
+        <v>0.02735290338044774</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.002197023802099525</v>
+        <v>0.002197023802099526</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.005693117645208644</v>
@@ -832,30 +832,30 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00162233596908856</v>
+        <v>0.001630701906153393</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001602265959171763</v>
+        <v>0.001603276449864802</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001468773687131422</v>
+        <v>0.001462512033448379</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003449851479731703</v>
+        <v>0.003418470211588617</v>
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002188072438417793</v>
+        <v>0.002281161707067973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004056462128277941</v>
+        <v>0.004135688444048954</v>
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01339936315847801</v>
+        <v>0.0134519501940942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02397537192552366</v>
+        <v>0.02119288200598461</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.02984648449438282</v>
+        <v>0.0300090713567761</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.020046247548191</v>
+        <v>0.0177418635808248</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01949089706807292</v>
+        <v>0.02103931814144349</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.01109843358411928</v>
+        <v>0.01259167674812959</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01220108371503962</v>
+        <v>0.01294914380980915</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01581746540212488</v>
+        <v>0.01600255654869324</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.01839988637593972</v>
+        <v>0.0150469531622231</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0.001831339556000075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.00591016739641576</v>
+        <v>0.005910167396415759</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.00356257854894424</v>
@@ -945,7 +945,7 @@
         <v>0.003195642776409733</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.006618000205477599</v>
+        <v>0.006618000205477598</v>
       </c>
     </row>
     <row r="11">
@@ -965,31 +965,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001850181630172151</v>
+        <v>0.001850285663120106</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002885814191202881</v>
+        <v>0.004283269189958874</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002935712199790053</v>
+        <v>0.003177360325487116</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001006556675025621</v>
+        <v>0.0009257623118406642</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002382514190859042</v>
+        <v>0.003060192439445647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0009112763311826466</v>
+        <v>0.0009019020141971334</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.003153745567021046</v>
+        <v>0.003285255960681317</v>
       </c>
     </row>
     <row r="12">
@@ -1000,40 +1000,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0124058317078601</v>
+        <v>0.0123598122699613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01164816241601553</v>
+        <v>0.01181961404848614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01128003121804768</v>
+        <v>0.01067959652731793</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01537215871905018</v>
+        <v>0.01635818336210965</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01149541853283984</v>
+        <v>0.01290183754012803</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01747299945271929</v>
+        <v>0.01879394284835402</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01533737948173408</v>
+        <v>0.01741057203897318</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01454944633453837</v>
+        <v>0.01591299823648457</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009179366540399223</v>
+        <v>0.009551813226864842</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01157514437837794</v>
+        <v>0.01174694369414209</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.008745057795142393</v>
+        <v>0.008701387670955713</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0124010262609017</v>
+        <v>0.01240677005286898</v>
       </c>
     </row>
     <row r="13">
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001861673913000979</v>
+        <v>0.001846422346323548</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
@@ -1105,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001832921978942057</v>
+        <v>0.0018397546299669</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.0009816313048760048</v>
+        <v>0.0009128991238814229</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001122279033381679</v>
+        <v>0.001108056633022733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003094499798600592</v>
+        <v>0.002813354301622374</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.0009771263464024859</v>
+        <v>0.0008228299232792508</v>
       </c>
     </row>
     <row r="15">
@@ -1130,34 +1130,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01630060635209045</v>
+        <v>0.01506836953783868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03199683476384578</v>
+        <v>0.02619764816193174</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.009170734970167058</v>
+        <v>0.008251126005363377</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01558853071973526</v>
+        <v>0.01535955182732275</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02069793880540758</v>
+        <v>0.02096916079413105</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.008956431150032968</v>
+        <v>0.007940115716382588</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01177708848976662</v>
+        <v>0.01156436283610431</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01610087390408156</v>
+        <v>0.01688045433998845</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.006210202443255294</v>
+        <v>0.005986858364180907</v>
       </c>
     </row>
     <row r="16">
@@ -1181,7 +1181,7 @@
         <v>0.005897606834203385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.005139354187055537</v>
+        <v>0.005139354187055536</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.006231890094584547</v>
@@ -1205,7 +1205,7 @@
         <v>0.00411594576349772</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.004280368670824589</v>
+        <v>0.00428036867082459</v>
       </c>
     </row>
     <row r="17">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.001544255018949974</v>
+        <v>0.001547603336458763</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.001127137833858764</v>
+        <v>0.001130733845868982</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.001261601987287643</v>
+        <v>0.001259944968757609</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.001727203764493625</v>
+        <v>0.001720765704666305</v>
       </c>
     </row>
     <row r="18">
@@ -1257,35 +1257,35 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01447884121494389</v>
+        <v>0.01298469305882971</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02099841079221774</v>
+        <v>0.02095069164542728</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01279842714973651</v>
+        <v>0.01435599117961263</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02168287147596682</v>
+        <v>0.02182235037608879</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.01343492024105285</v>
+        <v>0.01222810300886776</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.009237380915591771</v>
+        <v>0.01083886520044483</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01186391172775561</v>
+        <v>0.01018545930470706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.006983167945369032</v>
+        <v>0.006983679673537573</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01098871944045098</v>
+        <v>0.0114328352818705</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.009472344933963681</v>
+        <v>0.009031896176380802</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.001252416430915654</v>
+        <v>0.001256881154543435</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1361,10 +1361,10 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.001329475405155617</v>
+        <v>0.001331410738245145</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001976674625829528</v>
+        <v>0.001966751937774581</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.002047987747831195</v>
+        <v>0.001611768231720042</v>
       </c>
     </row>
     <row r="21">
@@ -1384,36 +1384,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02309827187562794</v>
+        <v>0.02695871720680177</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01926008610965079</v>
+        <v>0.01917379760026202</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02017089102189608</v>
+        <v>0.01988370643775471</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01270868205586008</v>
+        <v>0.01199799675683939</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02567716032232252</v>
+        <v>0.02905247411897849</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.01141084846023502</v>
+        <v>0.01249442669123008</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01679622377004449</v>
+        <v>0.01641806954703832</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.008955001526312231</v>
+        <v>0.009709082573486013</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.008996943436154245</v>
+        <v>0.01198040310846857</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.009039787926107023</v>
+        <v>0.008991894839257676</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.004284926860680852</v>
+        <v>0.00426551003131921</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.001673561138970512</v>
+        <v>0.001664084974645943</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.000869726198339241</v>
+        <v>0.00087583762968222</v>
       </c>
     </row>
     <row r="24">
@@ -1511,33 +1511,33 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.04070337692075755</v>
+        <v>0.03883334297278005</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.01831079489421816</v>
+        <v>0.01703608467575037</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0357545612071812</v>
+        <v>0.03395170310921477</v>
       </c>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.0371569513742431</v>
+        <v>0.03716157643007596</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.009340658647041304</v>
+        <v>0.009239758628000631</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02399065791965342</v>
+        <v>0.02115903839252484</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01701475955858212</v>
+        <v>0.01624344502596552</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02188538181245179</v>
+        <v>0.02188067802902785</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.009667336335434696</v>
+        <v>0.008404631332935175</v>
       </c>
     </row>
     <row r="25">
@@ -1585,7 +1585,7 @@
         <v>0.001816551961293764</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.004850742028074525</v>
+        <v>0.004850742028074526</v>
       </c>
     </row>
     <row r="26">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001522666740917682</v>
+        <v>0.001555144074871678</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003550424457600065</v>
+        <v>0.003726623466314981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0003892274479771822</v>
+        <v>0.0003831109980698857</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.002877568250389033</v>
+        <v>0.002757043780622909</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.002917054095926872</v>
+        <v>0.002988509898934472</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.003784531199857505</v>
+        <v>0.003760614952224745</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.000757160941850711</v>
+        <v>0.0007422652981394735</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.002790997405518672</v>
+        <v>0.002783180128585291</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.002929116132979147</v>
+        <v>0.002846355795744142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.004279168971235351</v>
+        <v>0.004306016745877779</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0008414931220392887</v>
+        <v>0.000808745911141269</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.003253919495340211</v>
+        <v>0.003303457776330519</v>
       </c>
     </row>
     <row r="27">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.006451643546996712</v>
+        <v>0.006112186262954511</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01036576712801906</v>
+        <v>0.0109859338722544</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.00352769549878764</v>
+        <v>0.003689928347407024</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.009365399669804063</v>
+        <v>0.008754947019978775</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.008704299787514684</v>
+        <v>0.00923025082272794</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.009382687795343438</v>
+        <v>0.009513668871861213</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.004857899004339274</v>
+        <v>0.004717896762286194</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.006728014165048121</v>
+        <v>0.006898478851178653</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.006593956217033763</v>
+        <v>0.006602644460008579</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.008553537528164113</v>
+        <v>0.00851293572534419</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.003314870199365607</v>
+        <v>0.003299546045678222</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0069609354615779</v>
+        <v>0.00695911107197885</v>
       </c>
     </row>
     <row r="28">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1082</v>
+        <v>972</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
@@ -1970,11 +1970,11 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>2604</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="7">
@@ -1985,34 +1985,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4079</v>
+        <v>5670</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6634</v>
+        <v>6649</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>17006</v>
+        <v>15919</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4236</v>
+        <v>5319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10203</v>
+        <v>9886</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>10126</v>
+        <v>11197</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6538</v>
+        <v>6893</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13065</v>
+        <v>13193</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>20846</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="8">
@@ -2115,30 +2115,30 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1925</v>
+        <v>1907</v>
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2458</v>
+        <v>2563</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4686</v>
+        <v>4777</v>
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
@@ -2153,34 +2153,34 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7715</v>
+        <v>7745</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14320</v>
+        <v>12658</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>13308</v>
+        <v>13381</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10979</v>
+        <v>9717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10874</v>
+        <v>11738</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>5356</v>
+        <v>6077</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13708</v>
+        <v>14548</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18272</v>
+        <v>18486</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>17084</v>
+        <v>13971</v>
       </c>
     </row>
     <row r="12">
@@ -2298,25 +2298,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1903</v>
+        <v>2825</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1783</v>
+        <v>1930</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1114</v>
+        <v>1024</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2969</v>
+        <v>3813</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3811</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="15">
@@ -2327,40 +2327,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6239</v>
+        <v>6216</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6833</v>
+        <v>6934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6293</v>
+        <v>5958</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9241</v>
+        <v>9833</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6938</v>
+        <v>7787</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11523</v>
+        <v>12394</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8790</v>
+        <v>9978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8836</v>
+        <v>9664</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10157</v>
+        <v>10569</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14424</v>
+        <v>14638</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9890</v>
+        <v>9841</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>14985</v>
+        <v>14992</v>
       </c>
     </row>
     <row r="16">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
@@ -2476,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>708</v>
+        <v>659</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3423</v>
+        <v>3112</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>1368</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="19">
@@ -2501,34 +2501,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6598</v>
+        <v>6099</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17369</v>
+        <v>14221</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6221</v>
+        <v>5597</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6846</v>
+        <v>6746</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11660</v>
+        <v>11813</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>6464</v>
+        <v>5731</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9939</v>
+        <v>9760</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17811</v>
+        <v>18673</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>8695</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="20">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2054</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="23">
@@ -2672,35 +2672,35 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5231</v>
+        <v>4691</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7790</v>
+        <v>7773</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7594</v>
+        <v>8518</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6919</v>
+        <v>6963</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>5319</v>
+        <v>4841</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5504</v>
+        <v>6458</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7017</v>
+        <v>6024</v>
       </c>
       <c r="L23" s="6" t="n">
         <v>5252</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8427</v>
+        <v>8768</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11265</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="24">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2820,10 +2820,10 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>1693</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27">
@@ -2843,36 +2843,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4915</v>
+        <v>5736</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5056</v>
+        <v>5033</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4642</v>
+        <v>4576</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5055</v>
+        <v>4772</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6341</v>
+        <v>7174</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>4894</v>
+        <v>5359</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7721</v>
+        <v>7547</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5024</v>
+        <v>5447</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>4562</v>
+        <v>6075</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>7473</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="28">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
@@ -2996,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31">
@@ -3014,33 +3014,33 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>7527</v>
+        <v>7181</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>5537</v>
+        <v>5152</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7444</v>
+        <v>7069</v>
       </c>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>8467</v>
+        <v>8468</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>4164</v>
+        <v>4119</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>8036</v>
+        <v>7088</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>8292</v>
+        <v>7916</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>8206</v>
+        <v>8204</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>7233</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="32">
@@ -3143,40 +3143,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3738</v>
+        <v>3817</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>10348</v>
+        <v>10862</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9777</v>
+        <v>9368</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>7995</v>
+        <v>8191</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>11896</v>
+        <v>11821</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2171</v>
+        <v>2128</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10119</v>
+        <v>10090</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>15219</v>
+        <v>14789</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>25923</v>
+        <v>26086</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4655</v>
+        <v>4474</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>22853</v>
+        <v>23201</v>
       </c>
     </row>
     <row r="35">
@@ -3187,40 +3187,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15837</v>
+        <v>15004</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30213</v>
+        <v>32020</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9399</v>
+        <v>9831</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>31821</v>
+        <v>29746</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>23858</v>
+        <v>25300</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>29493</v>
+        <v>29905</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>13929</v>
+        <v>13528</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>24392</v>
+        <v>25010</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>34260</v>
+        <v>34305</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>51818</v>
+        <v>51572</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>18337</v>
+        <v>18252</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>48888</v>
+        <v>48875</v>
       </c>
     </row>
     <row r="36">
